--- a/Sim-alpha5-2 - l = 0.2, m = -0.2.xlsx
+++ b/Sim-alpha5-2 - l = 0.2, m = -0.2.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sim-alpha5-2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Car1</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Speed</t>
+  </si>
+  <si>
+    <t>Accel1</t>
+  </si>
+  <si>
+    <t>Accel2</t>
+  </si>
+  <si>
+    <t>Accel3</t>
   </si>
 </sst>
 </file>
@@ -598,7 +607,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -607,26 +616,16 @@
             <c:v>Leader</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1006,7 +1005,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1015,26 +1014,16 @@
             <c:v>Car 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1414,7 +1403,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1423,26 +1412,16 @@
             <c:v>Car 3 </c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1822,7 +1801,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1832,11 +1811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147247048"/>
-        <c:axId val="147248616"/>
+        <c:axId val="357407456"/>
+        <c:axId val="357407848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147247048"/>
+        <c:axId val="357407456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,12 +1872,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147248616"/>
+        <c:crossAx val="357407848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147248616"/>
+        <c:axId val="357407848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147247048"/>
+        <c:crossAx val="357407456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2564,16 +2543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2858,15 +2837,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +2878,17 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2922,8 +2910,12 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2945,8 +2937,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2968,8 +2963,12 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2991,8 +2990,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3014,8 +3016,12 @@
       <c r="G9">
         <v>1.8964318770192301</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3037,8 +3043,11 @@
       <c r="G10">
         <v>2.6715505883216699</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3060,8 +3069,12 @@
       <c r="G11">
         <v>3.47739039194107</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3083,8 +3096,11 @@
       <c r="G12">
         <v>4.3037058371346202</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3106,8 +3122,12 @@
       <c r="G13">
         <v>5.1450240699528997</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3129,8 +3149,11 @@
       <c r="G14">
         <v>5.9976846785521403</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3152,8 +3175,12 @@
       <c r="G15">
         <v>6.8592150847925097</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -3175,8 +3202,11 @@
       <c r="G16">
         <v>7.7278976593799698</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3198,8 +3228,11 @@
       <c r="G17">
         <v>8.6025011419850799</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -3221,8 +3254,11 @@
       <c r="G18">
         <v>8.8872592939061903</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -3244,8 +3280,11 @@
       <c r="G19">
         <v>8.6741777959348791</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -3267,8 +3306,11 @@
       <c r="G20">
         <v>8.1046901869130696</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -3290,8 +3332,11 @@
       <c r="G21">
         <v>7.2932396523971397</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -3313,8 +3358,11 @@
       <c r="G22">
         <v>6.3219922036643501</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -3336,8 +3384,11 @@
       <c r="G23">
         <v>5.2458179329249202</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -3359,8 +3410,11 @@
       <c r="G24">
         <v>4.0977792782412896</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -3382,8 +3436,11 @@
       <c r="G25">
         <v>2.8924532768656399</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -3405,8 +3462,11 @@
       <c r="G26">
         <v>1.6230944191860299</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -3428,8 +3488,11 @@
       <c r="G27">
         <v>0.22843040468444101</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -3451,8 +3514,11 @@
       <c r="G28">
         <v>2.02398666226174</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -3474,8 +3540,11 @@
       <c r="G29">
         <v>1.9588917079466299</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -3497,8 +3566,11 @@
       <c r="G30">
         <v>2.69863792394306</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -3520,8 +3592,11 @@
       <c r="G31">
         <v>3.5033606613292299</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -3543,8 +3618,11 @@
       <c r="G32">
         <v>4.3302223440096697</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -3566,8 +3644,11 @@
       <c r="G33">
         <v>5.1720173857586298</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -3589,8 +3670,11 @@
       <c r="G34">
         <v>6.0249302352975302</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -3612,8 +3696,11 @@
       <c r="G35">
         <v>6.8865189451362196</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -3635,8 +3722,11 @@
       <c r="G36">
         <v>7.7551144414497504</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -3658,8 +3748,11 @@
       <c r="G37">
         <v>8.6295262990535004</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -3681,8 +3774,11 @@
       <c r="G38">
         <v>9.1964741567279198</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -3704,8 +3800,11 @@
       <c r="G39">
         <v>9.5360086297766706</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -3727,8 +3826,11 @@
       <c r="G40">
         <v>9.7338321754301091</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -3750,8 +3852,11 @@
       <c r="G41">
         <v>9.8476256842177996</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -3773,8 +3878,11 @@
       <c r="G42">
         <v>9.9126771552980006</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -3796,8 +3904,11 @@
       <c r="G43">
         <v>9.9497849357143906</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
@@ -3819,8 +3930,11 @@
       <c r="G44">
         <v>9.9709708007646007</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
@@ -3842,8 +3956,11 @@
       <c r="G45">
         <v>9.9831054641206602</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -3865,8 +3982,11 @@
       <c r="G46">
         <v>9.9900913533734794</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -3888,8 +4008,11 @@
       <c r="G47">
         <v>9.9941394794531107</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -3911,8 +4034,11 @@
       <c r="G48">
         <v>9.9965031345423299</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -3934,8 +4060,11 @@
       <c r="G49">
         <v>9.9978947625354593</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
@@ -3957,8 +4086,11 @@
       <c r="G50">
         <v>9.9987212830893792</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -3980,8 +4112,11 @@
       <c r="G51">
         <v>9.9992165618477902</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -4003,8 +4138,11 @@
       <c r="G52">
         <v>9.9995159935404399</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -4026,8 +4164,11 @@
       <c r="G53">
         <v>9.9996986003138701</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -4049,8 +4190,11 @@
       <c r="G54">
         <v>9.9998108996783799</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -4072,8 +4216,11 @@
       <c r="G55">
         <v>9.9998805169250709</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -4095,8 +4242,11 @@
       <c r="G56">
         <v>9.9999240034390091</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -4118,8 +4268,11 @@
       <c r="G57">
         <v>9.9999513625311902</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -4141,8 +4294,11 @@
       <c r="G58">
         <v>9.9999686913666501</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -4164,8 +4320,11 @@
       <c r="G59">
         <v>9.9999797365965293</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>55</v>
       </c>
@@ -4187,8 +4346,11 @@
       <c r="G60">
         <v>9.9999868184082406</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>56</v>
       </c>
@@ -4210,8 +4372,11 @@
       <c r="G61">
         <v>9.9999913842026</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>57</v>
       </c>
@@ -4233,8 +4398,11 @@
       <c r="G62">
         <v>9.9999943431774696</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>58</v>
       </c>
@@ -4256,8 +4424,11 @@
       <c r="G63">
         <v>9.9999962701803096</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>59</v>
       </c>
@@ -4278,6 +4449,9 @@
       </c>
       <c r="G64">
         <v>9.9999975308895195</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
